--- a/biology/Zoologie/Dolichoperoides_macalpini/Dolichoperoides_macalpini.xlsx
+++ b/biology/Zoologie/Dolichoperoides_macalpini/Dolichoperoides_macalpini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichoperoides
 Dolichoperoides macalpini, unique représentant du genre Dolichoperoides, est une espèce de trématodes de la famille des Dolichoperoididae.
@@ -512,10 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dolichoperoides est créé en 1940 par les parasitologues australiens Thomas Harvey Johnston (d) (1881-1951) et Laura Madeline Angel (d) (1908-1990) [1]. 
-L'espèce Dolichoperoides macalpini est décrite en 1914 par le parasitologue britannique William Nicoll (d) (1882-1946) sous le protonyme Dolichopera macalpini[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dolichoperoides est créé en 1940 par les parasitologues australiens Thomas Harvey Johnston (d) (1881-1951) et Laura Madeline Angel (d) (1908-1990) . 
+L'espèce Dolichoperoides macalpini est décrite en 1914 par le parasitologue britannique William Nicoll (d) (1882-1946) sous le protonyme Dolichopera macalpini.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce parasite des serpents, tel que le Serpent-tigre (Notechis scutatus) et Austrelaps superbus[note 1][réf. nécessaire], ainsi que des amphibiens, comme Dryopsophus raniformis, Limnodynastes dorsalis ou encore L. tasmaniensis[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce parasite des serpents, tel que le Serpent-tigre (Notechis scutatus) et Austrelaps superbus[note 1][réf. nécessaire], ainsi que des amphibiens, comme Dryopsophus raniformis, Limnodynastes dorsalis ou encore L. tasmaniensis.
 </t>
         </is>
       </c>
